--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifng-Ifngr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifng-Ifngr2.xlsx
@@ -543,10 +543,10 @@
         <v>0.09221</v>
       </c>
       <c r="I2">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J2">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.652004666666666</v>
+        <v>6.369648000000001</v>
       </c>
       <c r="N2">
-        <v>19.956014</v>
+        <v>19.108944</v>
       </c>
       <c r="O2">
-        <v>0.1229828539737522</v>
+        <v>0.1127004548956141</v>
       </c>
       <c r="P2">
-        <v>0.1229828539737522</v>
+        <v>0.1127004548956141</v>
       </c>
       <c r="Q2">
-        <v>0.2044604501044444</v>
+        <v>0.19578174736</v>
       </c>
       <c r="R2">
-        <v>1.84014405094</v>
+        <v>1.76203572624</v>
       </c>
       <c r="S2">
-        <v>0.01880020982317529</v>
+        <v>0.008084061020271066</v>
       </c>
       <c r="T2">
-        <v>0.01880020982317529</v>
+        <v>0.008084061020271068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.09221</v>
       </c>
       <c r="I3">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J3">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>36.613001</v>
       </c>
       <c r="O3">
-        <v>0.2256348064059207</v>
+        <v>0.2159356303411415</v>
       </c>
       <c r="P3">
-        <v>0.2256348064059207</v>
+        <v>0.2159356303411415</v>
       </c>
       <c r="Q3">
         <v>0.375120535801111</v>
@@ -635,10 +635,10 @@
         <v>3.37608482221</v>
       </c>
       <c r="S3">
-        <v>0.03449246432960644</v>
+        <v>0.01548917272557005</v>
       </c>
       <c r="T3">
-        <v>0.03449246432960644</v>
+        <v>0.01548917272557006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.09221</v>
       </c>
       <c r="I4">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J4">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.160873</v>
+        <v>5.679255</v>
       </c>
       <c r="N4">
-        <v>12.482619</v>
+        <v>17.037765</v>
       </c>
       <c r="O4">
-        <v>0.07692659013403103</v>
+        <v>0.1004850851990865</v>
       </c>
       <c r="P4">
-        <v>0.07692659013403101</v>
+        <v>0.1004850851990865</v>
       </c>
       <c r="Q4">
-        <v>0.1278913664433333</v>
+        <v>0.17456136785</v>
       </c>
       <c r="R4">
-        <v>1.15102229799</v>
+        <v>1.57105231065</v>
       </c>
       <c r="S4">
-        <v>0.01175965582820069</v>
+        <v>0.00720784633148952</v>
       </c>
       <c r="T4">
-        <v>0.01175965582820069</v>
+        <v>0.007207846331489521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.09221</v>
       </c>
       <c r="I5">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138437</v>
       </c>
       <c r="J5">
-        <v>0.1528685439938461</v>
+        <v>0.07173050923138438</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.07166733333333</v>
+        <v>32.265151</v>
       </c>
       <c r="N5">
-        <v>93.215002</v>
+        <v>96.79545300000001</v>
       </c>
       <c r="O5">
-        <v>0.5744557494862962</v>
+        <v>0.5708788295641578</v>
       </c>
       <c r="P5">
-        <v>0.5744557494862961</v>
+        <v>0.5708788295641579</v>
       </c>
       <c r="Q5">
-        <v>0.9550394816022222</v>
+        <v>0.9917231912366667</v>
       </c>
       <c r="R5">
-        <v>8.595355334420001</v>
+        <v>8.925508721130001</v>
       </c>
       <c r="S5">
-        <v>0.08781621401286373</v>
+        <v>0.04094942915405372</v>
       </c>
       <c r="T5">
-        <v>0.08781621401286371</v>
+        <v>0.04094942915405374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H6">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I6">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J6">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.652004666666666</v>
+        <v>6.369648000000001</v>
       </c>
       <c r="N6">
-        <v>19.956014</v>
+        <v>19.108944</v>
       </c>
       <c r="O6">
-        <v>0.1229828539737522</v>
+        <v>0.1127004548956141</v>
       </c>
       <c r="P6">
-        <v>0.1229828539737522</v>
+        <v>0.1127004548956141</v>
       </c>
       <c r="Q6">
-        <v>1.133031520203555</v>
+        <v>2.533625159936</v>
       </c>
       <c r="R6">
-        <v>10.197283681832</v>
+        <v>22.802626439424</v>
       </c>
       <c r="S6">
-        <v>0.1041826441505769</v>
+        <v>0.1046163938753431</v>
       </c>
       <c r="T6">
-        <v>0.1041826441505769</v>
+        <v>0.1046163938753431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H7">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I7">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J7">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>36.613001</v>
       </c>
       <c r="O7">
-        <v>0.2256348064059207</v>
+        <v>0.2159356303411415</v>
       </c>
       <c r="P7">
-        <v>0.2256348064059207</v>
+        <v>0.2159356303411415</v>
       </c>
       <c r="Q7">
-        <v>2.078756017220889</v>
+        <v>4.854460849032888</v>
       </c>
       <c r="R7">
-        <v>18.708804154988</v>
+        <v>43.69014764129599</v>
       </c>
       <c r="S7">
-        <v>0.1911423420763143</v>
+        <v>0.2004464576155714</v>
       </c>
       <c r="T7">
-        <v>0.1911423420763142</v>
+        <v>0.2004464576155715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H8">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I8">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J8">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.160873</v>
+        <v>5.679255</v>
       </c>
       <c r="N8">
-        <v>12.482619</v>
+        <v>17.037765</v>
       </c>
       <c r="O8">
-        <v>0.07692659013403103</v>
+        <v>0.1004850851990865</v>
       </c>
       <c r="P8">
-        <v>0.07692659013403101</v>
+        <v>0.1004850851990865</v>
       </c>
       <c r="Q8">
-        <v>0.7087187241746667</v>
+        <v>2.25901075816</v>
       </c>
       <c r="R8">
-        <v>6.378468517572001</v>
+        <v>20.33109682344</v>
       </c>
       <c r="S8">
-        <v>0.06516693430583034</v>
+        <v>0.09327723886759698</v>
       </c>
       <c r="T8">
-        <v>0.06516693430583032</v>
+        <v>0.09327723886759699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1703293333333333</v>
+        <v>0.3977653333333333</v>
       </c>
       <c r="H9">
-        <v>0.510988</v>
+        <v>1.193296</v>
       </c>
       <c r="I9">
-        <v>0.8471314560061539</v>
+        <v>0.9282694907686155</v>
       </c>
       <c r="J9">
-        <v>0.8471314560061538</v>
+        <v>0.9282694907686156</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.07166733333333</v>
+        <v>32.265151</v>
       </c>
       <c r="N9">
-        <v>93.215002</v>
+        <v>96.79545300000001</v>
       </c>
       <c r="O9">
-        <v>0.5744557494862962</v>
+        <v>0.5708788295641578</v>
       </c>
       <c r="P9">
-        <v>0.5744557494862961</v>
+        <v>0.5708788295641579</v>
       </c>
       <c r="Q9">
-        <v>5.292416382441778</v>
+        <v>12.83395854256533</v>
       </c>
       <c r="R9">
-        <v>47.631747441976</v>
+        <v>115.505626883088</v>
       </c>
       <c r="S9">
-        <v>0.4866395354734325</v>
+        <v>0.5299294004101041</v>
       </c>
       <c r="T9">
-        <v>0.4866395354734324</v>
+        <v>0.5299294004101042</v>
       </c>
     </row>
   </sheetData>
